--- a/Jogos_do_Dia/2023-06-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
   <si>
     <t>League</t>
   </si>
@@ -142,21 +142,24 @@
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
-    <t>Uruguay Segunda División</t>
+    <t>Argentina Primera División</t>
   </si>
   <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
     <t>Venezuela Primera División</t>
   </si>
   <si>
     <t>Ecuador Primera Categoría Serie A</t>
   </si>
   <si>
+    <t>Peru Primera División</t>
+  </si>
+  <si>
+    <t>Colombia Categoria Primera B</t>
+  </si>
+  <si>
     <t>12:30:00</t>
   </si>
   <si>
@@ -190,6 +193,12 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
     <t>Monastir</t>
   </si>
   <si>
@@ -205,63 +214,42 @@
     <t>Defensores Unidos</t>
   </si>
   <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
+    <t>Drogheda United</t>
+  </si>
+  <si>
     <t>Derry City</t>
   </si>
   <si>
     <t>Bohemians</t>
   </si>
   <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
-  </si>
-  <si>
     <t>Vaca Díez</t>
   </si>
   <si>
+    <t>HK</t>
+  </si>
+  <si>
     <t>Keflavík</t>
   </si>
   <si>
-    <t>HK</t>
-  </si>
-  <si>
     <t>FH</t>
   </si>
   <si>
-    <t>Potencia</t>
-  </si>
-  <si>
     <t>La Luz</t>
   </si>
   <si>
-    <t>Atenas</t>
-  </si>
-  <si>
-    <t>Oriental</t>
-  </si>
-  <si>
-    <t>Juventud</t>
-  </si>
-  <si>
-    <t>Tacuarembó</t>
-  </si>
-  <si>
-    <t>Cerrito</t>
+    <t>Huracán</t>
   </si>
   <si>
     <t>Atlético GO</t>
   </si>
   <si>
-    <t>Huracán</t>
-  </si>
-  <si>
-    <t>Rampla Juniors</t>
-  </si>
-  <si>
     <t>Metropolitanos</t>
   </si>
   <si>
@@ -271,6 +259,18 @@
     <t>SD Aucas</t>
   </si>
   <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
+    <t>Hermanos Colmenares</t>
+  </si>
+  <si>
+    <t>Alianza Lima</t>
+  </si>
+  <si>
+    <t>Llaneros</t>
+  </si>
+  <si>
     <t>Ben Guerdane</t>
   </si>
   <si>
@@ -286,63 +286,42 @@
     <t>Club Atlético Güemes</t>
   </si>
   <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
     <t>Cork City</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Shelbourne</t>
-  </si>
-  <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
     <t>Aurora</t>
   </si>
   <si>
+    <t>Breidablik</t>
+  </si>
+  <si>
     <t>Fylkir</t>
   </si>
   <si>
-    <t>Breidablik</t>
-  </si>
-  <si>
     <t>Fram</t>
   </si>
   <si>
-    <t>Bella Vista</t>
-  </si>
-  <si>
     <t>Danubio</t>
   </si>
   <si>
-    <t>Uruguay Montevideo FC</t>
-  </si>
-  <si>
-    <t>Miramar Misiones</t>
-  </si>
-  <si>
-    <t>Albion</t>
-  </si>
-  <si>
-    <t>Sud América</t>
-  </si>
-  <si>
-    <t>Rentistas</t>
+    <t>Newell's Old Boys</t>
   </si>
   <si>
     <t>Ponte Preta</t>
   </si>
   <si>
-    <t>Newell's Old Boys</t>
-  </si>
-  <si>
-    <t>Progreso</t>
-  </si>
-  <si>
     <t>Portuguesa</t>
   </si>
   <si>
@@ -350,6 +329,18 @@
   </si>
   <si>
     <t>Orense SC</t>
+  </si>
+  <si>
+    <t>Defensa y Justicia</t>
+  </si>
+  <si>
+    <t>Mineros de Guayana</t>
+  </si>
+  <si>
+    <t>Atlético Grau</t>
+  </si>
+  <si>
+    <t>Patriotas Boyacá</t>
   </si>
 </sst>
 </file>
@@ -711,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,25 +823,25 @@
         <v>45100</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>85</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -859,37 +850,37 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>1.76</v>
@@ -939,64 +930,64 @@
         <v>45100</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>86</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W3">
         <v>0.8</v>
@@ -1046,13 +1037,13 @@
         <v>45100</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -1130,7 +1121,7 @@
         <v>2.1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF4">
         <v>1.23</v>
@@ -1153,22 +1144,22 @@
         <v>45100</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>88</v>
       </c>
       <c r="G5">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I5">
         <v>1.97</v>
@@ -1186,10 +1177,10 @@
         <v>3.75</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P5">
         <v>1.36</v>
@@ -1237,19 +1228,19 @@
         <v>1.73</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1260,64 +1251,64 @@
         <v>45100</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
         <v>89</v>
       </c>
       <c r="G6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H6">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I6">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W6">
         <v>2.4</v>
@@ -1335,28 +1326,28 @@
         <v>2.38</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1367,103 +1358,103 @@
         <v>45100</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
         <v>90</v>
       </c>
       <c r="G7">
-        <v>1.37</v>
+        <v>6.6</v>
       </c>
       <c r="H7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I7">
-        <v>8.5</v>
+        <v>1.44</v>
       </c>
       <c r="J7">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L7">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P7">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q7">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R7">
+        <v>2.2</v>
+      </c>
+      <c r="S7">
+        <v>1.62</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
+        <v>1.16</v>
+      </c>
+      <c r="V7">
+        <v>1.05</v>
+      </c>
+      <c r="W7">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="X7">
+        <v>1.1</v>
+      </c>
+      <c r="Y7">
+        <v>1.04</v>
+      </c>
+      <c r="Z7">
+        <v>1.46</v>
+      </c>
+      <c r="AA7">
         <v>2.5</v>
       </c>
-      <c r="S7">
-        <v>1.5</v>
-      </c>
-      <c r="T7">
-        <v>1.02</v>
-      </c>
-      <c r="U7">
-        <v>1.15</v>
-      </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
-      <c r="W7">
+      <c r="AB7">
+        <v>4.07</v>
+      </c>
+      <c r="AC7">
+        <v>9.5</v>
+      </c>
+      <c r="AD7">
+        <v>1.34</v>
+      </c>
+      <c r="AE7">
+        <v>1.25</v>
+      </c>
+      <c r="AF7">
         <v>1.45</v>
       </c>
-      <c r="X7">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y7">
-        <v>1.86</v>
-      </c>
-      <c r="Z7">
-        <v>1.14</v>
-      </c>
-      <c r="AA7">
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>1.09</v>
-      </c>
-      <c r="AC7">
-        <v>13</v>
-      </c>
-      <c r="AD7">
-        <v>8.85</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1474,43 +1465,43 @@
         <v>45100</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
       </c>
       <c r="G8">
-        <v>3.1</v>
+        <v>1.84</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I8">
-        <v>2.15</v>
+        <v>3.95</v>
       </c>
       <c r="J8">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M8">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="O8">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="P8">
         <v>1.44</v>
@@ -1525,52 +1516,52 @@
         <v>1.8</v>
       </c>
       <c r="T8">
-        <v>1.63</v>
+        <v>1.17</v>
       </c>
       <c r="U8">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V8">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>1.22</v>
       </c>
       <c r="Y8">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="Z8">
+        <v>1.14</v>
+      </c>
+      <c r="AA8">
+        <v>2.69</v>
+      </c>
+      <c r="AB8">
         <v>1.64</v>
-      </c>
-      <c r="AA8">
-        <v>3.27</v>
-      </c>
-      <c r="AB8">
-        <v>2.1</v>
       </c>
       <c r="AC8">
         <v>8</v>
       </c>
       <c r="AD8">
-        <v>1.91</v>
+        <v>2.67</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1581,25 +1572,25 @@
         <v>45100</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>92</v>
       </c>
       <c r="G9">
-        <v>1.83</v>
+        <v>2.54</v>
       </c>
       <c r="H9">
         <v>3.4</v>
       </c>
       <c r="I9">
-        <v>4.1</v>
+        <v>2.54</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -1614,70 +1605,70 @@
         <v>3.2</v>
       </c>
       <c r="N9">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="O9">
+        <v>1.82</v>
+      </c>
+      <c r="P9">
+        <v>1.4</v>
+      </c>
+      <c r="Q9">
+        <v>2.75</v>
+      </c>
+      <c r="R9">
+        <v>1.75</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>1.4</v>
+      </c>
+      <c r="U9">
+        <v>1.25</v>
+      </c>
+      <c r="V9">
+        <v>1.5</v>
+      </c>
+      <c r="W9">
+        <v>1.1</v>
+      </c>
+      <c r="X9">
+        <v>1.27</v>
+      </c>
+      <c r="Y9">
         <v>1.8</v>
       </c>
-      <c r="P9">
-        <v>1.44</v>
-      </c>
-      <c r="Q9">
-        <v>2.63</v>
-      </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
-      <c r="S9">
-        <v>1.8</v>
-      </c>
-      <c r="T9">
-        <v>1.17</v>
-      </c>
-      <c r="U9">
-        <v>1.22</v>
-      </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
-      <c r="W9">
-        <v>1.9</v>
-      </c>
-      <c r="X9">
-        <v>1.22</v>
-      </c>
-      <c r="Y9">
-        <v>1.55</v>
-      </c>
       <c r="Z9">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AA9">
-        <v>2.69</v>
+        <v>3.05</v>
       </c>
       <c r="AB9">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AC9">
         <v>8</v>
       </c>
       <c r="AD9">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG9">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1688,37 +1679,37 @@
         <v>45100</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
         <v>93</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>1.36</v>
       </c>
       <c r="H10">
-        <v>4.1</v>
+        <v>4.55</v>
       </c>
       <c r="I10">
-        <v>1.43</v>
+        <v>7.7</v>
       </c>
       <c r="J10">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K10">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M10">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>2.05</v>
@@ -1727,64 +1718,64 @@
         <v>1.82</v>
       </c>
       <c r="P10">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q10">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R10">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S10">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>1.02</v>
       </c>
       <c r="U10">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="V10">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="W10">
+        <v>1.45</v>
+      </c>
+      <c r="X10">
         <v>0.5600000000000001</v>
       </c>
-      <c r="X10">
-        <v>1.1</v>
-      </c>
       <c r="Y10">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="Z10">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="AA10">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AB10">
-        <v>4.07</v>
+        <v>1.09</v>
       </c>
       <c r="AC10">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD10">
-        <v>1.34</v>
+        <v>8.85</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG10">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1795,103 +1786,103 @@
         <v>45100</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
       </c>
       <c r="G11">
-        <v>2.45</v>
+        <v>3.15</v>
       </c>
       <c r="H11">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I11">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="J11">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="N11">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="O11">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="P11">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q11">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R11">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="U11">
         <v>1.25</v>
       </c>
       <c r="V11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W11">
-        <v>1.1</v>
+        <v>1.78</v>
       </c>
       <c r="X11">
-        <v>1.27</v>
+        <v>2.1</v>
       </c>
       <c r="Y11">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="Z11">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="AA11">
-        <v>3.05</v>
+        <v>3.27</v>
       </c>
       <c r="AB11">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AC11">
         <v>8</v>
       </c>
       <c r="AD11">
-        <v>2.54</v>
+        <v>1.91</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1902,64 +1893,64 @@
         <v>45100</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W12">
         <v>2</v>
@@ -2009,25 +2000,25 @@
         <v>45100</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>96</v>
       </c>
       <c r="G13">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="H13">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="I13">
-        <v>2.4</v>
+        <v>1.49</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2036,76 +2027,76 @@
         <v>11</v>
       </c>
       <c r="L13">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="M13">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O13">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="P13">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q13">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="R13">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="S13">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T13">
-        <v>1.44</v>
+        <v>2.55</v>
       </c>
       <c r="U13">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="V13">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="W13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="X13">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="Z13">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="AA13">
-        <v>2.59</v>
+        <v>2.78</v>
       </c>
       <c r="AB13">
-        <v>1.91</v>
+        <v>3.48</v>
       </c>
       <c r="AC13">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD13">
-        <v>2.1</v>
+        <v>1.41</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2116,25 +2107,25 @@
         <v>45100</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
       </c>
       <c r="G14">
-        <v>5.75</v>
+        <v>2.46</v>
       </c>
       <c r="H14">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="I14">
-        <v>1.5</v>
+        <v>2.41</v>
       </c>
       <c r="J14">
         <v>1.03</v>
@@ -2143,76 +2134,76 @@
         <v>11</v>
       </c>
       <c r="L14">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="O14">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="P14">
+        <v>1.27</v>
+      </c>
+      <c r="Q14">
+        <v>3.56</v>
+      </c>
+      <c r="R14">
+        <v>1.45</v>
+      </c>
+      <c r="S14">
+        <v>2.6</v>
+      </c>
+      <c r="T14">
+        <v>1.44</v>
+      </c>
+      <c r="U14">
+        <v>1.22</v>
+      </c>
+      <c r="V14">
+        <v>1.42</v>
+      </c>
+      <c r="W14">
+        <v>0.4</v>
+      </c>
+      <c r="X14">
+        <v>0.25</v>
+      </c>
+      <c r="Y14">
+        <v>1.05</v>
+      </c>
+      <c r="Z14">
+        <v>1.54</v>
+      </c>
+      <c r="AA14">
+        <v>2.59</v>
+      </c>
+      <c r="AB14">
+        <v>1.91</v>
+      </c>
+      <c r="AC14">
+        <v>8.5</v>
+      </c>
+      <c r="AD14">
+        <v>2.1</v>
+      </c>
+      <c r="AE14">
+        <v>1.09</v>
+      </c>
+      <c r="AF14">
+        <v>1.15</v>
+      </c>
+      <c r="AG14">
         <v>1.3</v>
       </c>
-      <c r="Q14">
-        <v>3.4</v>
-      </c>
-      <c r="R14">
-        <v>1.68</v>
-      </c>
-      <c r="S14">
-        <v>2.1</v>
-      </c>
-      <c r="T14">
-        <v>2.55</v>
-      </c>
-      <c r="U14">
-        <v>1.15</v>
-      </c>
-      <c r="V14">
-        <v>1.09</v>
-      </c>
-      <c r="W14">
-        <v>0.8</v>
-      </c>
-      <c r="X14">
+      <c r="AH14">
+        <v>1.53</v>
+      </c>
+      <c r="AI14">
         <v>2</v>
-      </c>
-      <c r="Y14">
-        <v>1.29</v>
-      </c>
-      <c r="Z14">
-        <v>1.49</v>
-      </c>
-      <c r="AA14">
-        <v>2.78</v>
-      </c>
-      <c r="AB14">
-        <v>3.48</v>
-      </c>
-      <c r="AC14">
-        <v>9.5</v>
-      </c>
-      <c r="AD14">
-        <v>1.41</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2223,25 +2214,25 @@
         <v>45100</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>98</v>
       </c>
       <c r="G15">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H15">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I15">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J15">
         <v>1.03</v>
@@ -2256,10 +2247,10 @@
         <v>4.5</v>
       </c>
       <c r="N15">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="O15">
-        <v>2.38</v>
+        <v>2.77</v>
       </c>
       <c r="P15">
         <v>1.29</v>
@@ -2307,423 +2298,423 @@
         <v>2.9</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
         <v>45100</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W16">
-        <v>0.83</v>
+        <v>1.4</v>
       </c>
       <c r="X16">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="Y16">
-        <v>1.09</v>
+        <v>1.54</v>
       </c>
       <c r="Z16">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AA16">
-        <v>2.11</v>
+        <v>2.73</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
         <v>45100</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
       </c>
       <c r="G17">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="I17">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>1.68</v>
+      </c>
+      <c r="M17">
+        <v>2.2</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>1.38</v>
+      </c>
+      <c r="P17">
+        <v>1.66</v>
+      </c>
+      <c r="Q17">
+        <v>2.12</v>
+      </c>
+      <c r="R17">
+        <v>2.4</v>
+      </c>
+      <c r="S17">
+        <v>1.55</v>
+      </c>
+      <c r="T17">
+        <v>1.38</v>
+      </c>
+      <c r="U17">
+        <v>1.36</v>
+      </c>
+      <c r="V17">
+        <v>1.5</v>
+      </c>
+      <c r="W17">
+        <v>1.33</v>
+      </c>
+      <c r="X17">
+        <v>0.7</v>
+      </c>
+      <c r="Y17">
+        <v>1.44</v>
+      </c>
+      <c r="Z17">
+        <v>1.43</v>
+      </c>
+      <c r="AA17">
+        <v>2.87</v>
+      </c>
+      <c r="AB17">
+        <v>1.82</v>
+      </c>
+      <c r="AC17">
         <v>7.5</v>
       </c>
-      <c r="L17">
+      <c r="AD17">
+        <v>2.42</v>
+      </c>
+      <c r="AE17">
         <v>1.36</v>
       </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>1.8</v>
-      </c>
-      <c r="P17">
-        <v>1.4</v>
-      </c>
-      <c r="Q17">
-        <v>2.75</v>
-      </c>
-      <c r="R17">
-        <v>1.8</v>
-      </c>
-      <c r="S17">
-        <v>1.91</v>
-      </c>
-      <c r="T17">
-        <v>1.53</v>
-      </c>
-      <c r="U17">
-        <v>1.3</v>
-      </c>
-      <c r="V17">
-        <v>1.4</v>
-      </c>
-      <c r="W17">
-        <v>1.4</v>
-      </c>
-      <c r="X17">
-        <v>0.44</v>
-      </c>
-      <c r="Y17">
-        <v>1.54</v>
-      </c>
-      <c r="Z17">
-        <v>1.19</v>
-      </c>
-      <c r="AA17">
-        <v>2.73</v>
-      </c>
-      <c r="AB17">
-        <v>2.38</v>
-      </c>
-      <c r="AC17">
-        <v>8</v>
-      </c>
-      <c r="AD17">
-        <v>1.8</v>
-      </c>
-      <c r="AE17">
-        <v>1.29</v>
-      </c>
       <c r="AF17">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="AG17">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="AH17">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="AI17">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2">
         <v>45100</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
         <v>101</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.33</v>
+        <v>1.83</v>
       </c>
       <c r="X18">
-        <v>1.83</v>
+        <v>0.4</v>
       </c>
       <c r="Y18">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="Z18">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="AA18">
-        <v>2.49</v>
+        <v>2.92</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2">
         <v>45100</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
         <v>102</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W19">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X19">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="Y19">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="Z19">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AA19">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2752,31 +2743,31 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2">
         <v>45100</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
         <v>103</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2791,22 +2782,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2818,19 +2809,19 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="X20">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="Y20">
-        <v>1.38</v>
+        <v>2.39</v>
       </c>
       <c r="Z20">
-        <v>1.81</v>
+        <v>1.28</v>
       </c>
       <c r="AA20">
-        <v>3.19</v>
+        <v>3.67</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2859,109 +2850,109 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2">
         <v>45100</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
         <v>104</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.17</v>
+        <v>2.14</v>
       </c>
       <c r="X21">
-        <v>1.17</v>
+        <v>0.43</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Z21">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="AA21">
-        <v>1.45</v>
+        <v>2.78</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2972,186 +2963,186 @@
         <v>45100</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
         <v>105</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="W22">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="X22">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="Y22">
-        <v>1.19</v>
+        <v>1.93</v>
       </c>
       <c r="Z22">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AA22">
+        <v>3.25</v>
+      </c>
+      <c r="AB22">
+        <v>1.31</v>
+      </c>
+      <c r="AC22">
+        <v>9.5</v>
+      </c>
+      <c r="AD22">
+        <v>4.13</v>
+      </c>
+      <c r="AE22">
+        <v>1.27</v>
+      </c>
+      <c r="AF22">
+        <v>1.5</v>
+      </c>
+      <c r="AG22">
+        <v>1.93</v>
+      </c>
+      <c r="AH22">
         <v>2.45</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
         <v>45100</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
         <v>106</v>
       </c>
       <c r="G23">
+        <v>1.76</v>
+      </c>
+      <c r="H23">
+        <v>3.39</v>
+      </c>
+      <c r="I23">
+        <v>3.6</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>1.8</v>
       </c>
-      <c r="H23">
-        <v>3.5</v>
-      </c>
-      <c r="I23">
-        <v>4.2</v>
-      </c>
-      <c r="J23">
-        <v>1.04</v>
-      </c>
-      <c r="K23">
-        <v>7.9</v>
-      </c>
-      <c r="L23">
-        <v>1.38</v>
-      </c>
-      <c r="M23">
-        <v>2.9</v>
-      </c>
-      <c r="N23">
-        <v>2.15</v>
-      </c>
       <c r="O23">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="P23">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="X23">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="Y23">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Z23">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AA23">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3166,551 +3157,230 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2">
         <v>45100</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
         <v>107</v>
       </c>
       <c r="G24">
-        <v>2.65</v>
+        <v>1.32</v>
       </c>
       <c r="H24">
-        <v>2.85</v>
+        <v>4.65</v>
       </c>
       <c r="I24">
+        <v>6.8</v>
+      </c>
+      <c r="J24">
+        <v>1.02</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>1.2</v>
+      </c>
+      <c r="M24">
+        <v>3.9</v>
+      </c>
+      <c r="N24">
+        <v>1.68</v>
+      </c>
+      <c r="O24">
+        <v>2.14</v>
+      </c>
+      <c r="P24">
+        <v>1.3</v>
+      </c>
+      <c r="Q24">
+        <v>3.2</v>
+      </c>
+      <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.8</v>
+      </c>
+      <c r="T24">
+        <v>1.09</v>
+      </c>
+      <c r="U24">
+        <v>1.15</v>
+      </c>
+      <c r="V24">
+        <v>2.45</v>
+      </c>
+      <c r="W24">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>1.14</v>
-      </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <v>1.68</v>
-      </c>
-      <c r="M24">
-        <v>2.2</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24">
-        <v>1.38</v>
-      </c>
-      <c r="P24">
-        <v>1.66</v>
-      </c>
-      <c r="Q24">
-        <v>2.12</v>
-      </c>
-      <c r="R24">
-        <v>2.4</v>
-      </c>
-      <c r="S24">
-        <v>1.55</v>
-      </c>
-      <c r="T24">
-        <v>1.38</v>
-      </c>
-      <c r="U24">
-        <v>1.36</v>
-      </c>
-      <c r="V24">
-        <v>1.5</v>
-      </c>
-      <c r="W24">
-        <v>1.33</v>
-      </c>
       <c r="X24">
-        <v>0.7</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y24">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="Z24">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AA24">
-        <v>2.87</v>
+        <v>3.07</v>
       </c>
       <c r="AB24">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="AC24">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD24">
-        <v>2.42</v>
+        <v>4</v>
       </c>
       <c r="AE24">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AF24">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="AG24">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
       <c r="AH24">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="AI24">
-        <v>4.1</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2">
         <v>45100</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
         <v>108</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W25">
+        <v>1.96</v>
+      </c>
+      <c r="X25">
+        <v>1.78</v>
+      </c>
+      <c r="Y25">
         <v>1.33</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
+        <v>1.21</v>
+      </c>
+      <c r="AA25">
+        <v>2.54</v>
+      </c>
+      <c r="AB25">
+        <v>1.66</v>
+      </c>
+      <c r="AC25">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD25">
+        <v>2.53</v>
+      </c>
+      <c r="AE25">
+        <v>1.34</v>
+      </c>
+      <c r="AF25">
+        <v>1.71</v>
+      </c>
+      <c r="AG25">
         <v>2.14</v>
       </c>
-      <c r="Y25">
-        <v>1.1</v>
-      </c>
-      <c r="Z25">
-        <v>1.33</v>
-      </c>
-      <c r="AA25">
-        <v>2.43</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AI25">
         <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2">
-        <v>45100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26">
-        <v>1.88</v>
-      </c>
-      <c r="H26">
-        <v>3.1</v>
-      </c>
-      <c r="I26">
-        <v>3.75</v>
-      </c>
-      <c r="J26">
-        <v>1.07</v>
-      </c>
-      <c r="K26">
-        <v>6.4</v>
-      </c>
-      <c r="L26">
-        <v>1.49</v>
-      </c>
-      <c r="M26">
-        <v>2.45</v>
-      </c>
-      <c r="N26">
-        <v>2.35</v>
-      </c>
-      <c r="O26">
-        <v>1.53</v>
-      </c>
-      <c r="P26">
-        <v>1.56</v>
-      </c>
-      <c r="Q26">
-        <v>2.3</v>
-      </c>
-      <c r="R26">
-        <v>2.15</v>
-      </c>
-      <c r="S26">
-        <v>1.63</v>
-      </c>
-      <c r="T26">
-        <v>1.18</v>
-      </c>
-      <c r="U26">
-        <v>1.28</v>
-      </c>
-      <c r="V26">
-        <v>1.72</v>
-      </c>
-      <c r="W26">
-        <v>1.86</v>
-      </c>
-      <c r="X26">
-        <v>1.71</v>
-      </c>
-      <c r="Y26">
-        <v>1.48</v>
-      </c>
-      <c r="Z26">
-        <v>1.11</v>
-      </c>
-      <c r="AA26">
-        <v>2.59</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="2">
-        <v>45100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>1.29</v>
-      </c>
-      <c r="X27">
-        <v>0.86</v>
-      </c>
-      <c r="Y27">
-        <v>2.39</v>
-      </c>
-      <c r="Z27">
-        <v>1.28</v>
-      </c>
-      <c r="AA27">
-        <v>3.67</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45100</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28">
-        <v>1.85</v>
-      </c>
-      <c r="H28">
-        <v>3.45</v>
-      </c>
-      <c r="I28">
-        <v>3.7</v>
-      </c>
-      <c r="J28">
-        <v>1.07</v>
-      </c>
-      <c r="K28">
-        <v>7.75</v>
-      </c>
-      <c r="L28">
-        <v>1.35</v>
-      </c>
-      <c r="M28">
-        <v>2.9</v>
-      </c>
-      <c r="N28">
-        <v>2.05</v>
-      </c>
-      <c r="O28">
-        <v>1.72</v>
-      </c>
-      <c r="P28">
-        <v>1.44</v>
-      </c>
-      <c r="Q28">
-        <v>2.55</v>
-      </c>
-      <c r="R28">
-        <v>1.85</v>
-      </c>
-      <c r="S28">
-        <v>1.82</v>
-      </c>
-      <c r="T28">
-        <v>1.18</v>
-      </c>
-      <c r="U28">
-        <v>1.22</v>
-      </c>
-      <c r="V28">
-        <v>1.9</v>
-      </c>
-      <c r="W28">
-        <v>2.14</v>
-      </c>
-      <c r="X28">
-        <v>0.43</v>
-      </c>
-      <c r="Y28">
-        <v>1.62</v>
-      </c>
-      <c r="Z28">
-        <v>1.16</v>
-      </c>
-      <c r="AA28">
-        <v>2.78</v>
-      </c>
-      <c r="AB28">
-        <v>1.71</v>
-      </c>
-      <c r="AC28">
-        <v>8.6</v>
-      </c>
-      <c r="AD28">
-        <v>2.47</v>
-      </c>
-      <c r="AE28">
-        <v>1.27</v>
-      </c>
-      <c r="AF28">
-        <v>1.51</v>
-      </c>
-      <c r="AG28">
-        <v>1.89</v>
-      </c>
-      <c r="AH28">
-        <v>2.45</v>
-      </c>
-      <c r="AI28">
-        <v>3.34</v>
       </c>
     </row>
   </sheetData>
